--- a/docs/ST1/ST1_05.08.24_output.xlsx
+++ b/docs/ST1/ST1_05.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,11 @@
           <t>quity</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -528,6 +533,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -540,22 +546,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1730732401.0117555</t>
+          <t>1731621066.5850756</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1730732401.5272312</t>
+          <t>1731621067.0728755</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730732401.0117555.png</t>
+          <t>./test_images/SBER1731621066.5850756.png</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730732401.5272312.png</t>
+          <t>./test_images/SBER1731621067.0728755.png</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -576,6 +582,9 @@
       </c>
       <c r="K3" t="n">
         <v>0.4300000000000068</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -589,22 +598,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1730732410.3668962</t>
+          <t>1731621076.2180307</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1730732412.5464344</t>
+          <t>1731621078.6171799</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732410.3668962.png</t>
+          <t>./test_images/GAZP1731621076.2180307.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732412.5464344.png</t>
+          <t>./test_images/GAZP1731621078.6171799.png</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -625,6 +634,9 @@
       </c>
       <c r="K4" t="n">
         <v>-0.5900000000000034</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +650,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1730732412.5623918</t>
+          <t>1731621078.6331377</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1730732413.851985</t>
+          <t>1731621079.968818</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732412.5623918.png</t>
+          <t>./test_images/GAZP1731621078.6331377.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732413.851985.png</t>
+          <t>./test_images/GAZP1731621079.968818.png</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -674,6 +686,9 @@
       </c>
       <c r="K5" t="n">
         <v>0.5599999999999881</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="6">
@@ -687,22 +702,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1730732414.935584</t>
+          <t>1731621081.2019885</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1730732416.8237727</t>
+          <t>1731621083.2627766</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732414.935584.png</t>
+          <t>./test_images/GAZP1731621081.2019885.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732416.8237727.png</t>
+          <t>./test_images/GAZP1731621083.2627766.png</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -723,6 +738,9 @@
       </c>
       <c r="K6" t="n">
         <v>-0.1400000000000148</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="7">
@@ -736,22 +754,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1730732416.8417244</t>
+          <t>1731621083.2797315</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1730732420.229699</t>
+          <t>1731621086.731532</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732416.8417244.png</t>
+          <t>./test_images/GAZP1731621083.2797315.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732420.229699.png</t>
+          <t>./test_images/GAZP1731621086.731532.png</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -772,6 +790,9 @@
       </c>
       <c r="K7" t="n">
         <v>-0.02000000000001023</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="8">
@@ -785,22 +806,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1730732420.2496448</t>
+          <t>1731621086.7484868</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1730732420.601703</t>
+          <t>1731621087.1390898</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732420.2496448.png</t>
+          <t>./test_images/GAZP1731621086.7484868.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732420.601703.png</t>
+          <t>./test_images/GAZP1731621087.1390898.png</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -821,6 +842,9 @@
       </c>
       <c r="K8" t="n">
         <v>0.1700000000000017</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="9">
@@ -834,22 +858,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1730732422.4248292</t>
+          <t>1731621089.0268002</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1730732422.8137898</t>
+          <t>1731621089.4792087</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732422.4248292.png</t>
+          <t>./test_images/GAZP1731621089.0268002.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732422.8137898.png</t>
+          <t>./test_images/GAZP1731621089.4792087.png</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -870,6 +894,9 @@
       </c>
       <c r="K9" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="10">
@@ -883,22 +910,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1730732425.815768</t>
+          <t>1731621092.884838</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1730732427.87928</t>
+          <t>1731621095.0564294</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730732425.815768.png</t>
+          <t>./test_images/LKOH1731621092.884838.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730732427.87928.png</t>
+          <t>./test_images/LKOH1731621095.0564294.png</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -919,6 +946,9 @@
       </c>
       <c r="K10" t="n">
         <v>10.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="11">
@@ -932,13 +962,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1730732431.4520535</t>
+          <t>1731621098.773075</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730732431.4520535.png</t>
+          <t>./test_images/LKOH1731621098.773075.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -955,8 +985,15 @@
       <c r="I11" t="n">
         <v>6443</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>6443</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -969,22 +1006,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1730732435.8818905</t>
+          <t>1731621103.2959483</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1730732440.279159</t>
+          <t>1731621107.6287677</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730732435.8818905.png</t>
+          <t>./test_images/ROSN1731621103.2959483.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730732440.279159.png</t>
+          <t>./test_images/ROSN1731621107.6287677.png</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1005,6 +1042,9 @@
       </c>
       <c r="K12" t="n">
         <v>-0.3500000000000227</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -1018,22 +1058,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1730732448.0743122</t>
+          <t>1731621115.5336978</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1730732448.8652267</t>
+          <t>1731621116.3255854</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732448.0743122.png</t>
+          <t>./test_images/MOEX1731621115.5336978.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732448.8652267.png</t>
+          <t>./test_images/MOEX1731621116.3255854.png</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1054,6 +1094,9 @@
       </c>
       <c r="K13" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="14">
@@ -1067,22 +1110,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1730732448.8811867</t>
+          <t>1731621116.3415427</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1730732449.8303125</t>
+          <t>1731621117.3790658</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732448.8811867.png</t>
+          <t>./test_images/MOEX1731621116.3415427.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732449.8303125.png</t>
+          <t>./test_images/MOEX1731621117.3790658.png</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1103,6 +1146,9 @@
       </c>
       <c r="K14" t="n">
         <v>0.6099999999999852</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="15">
@@ -1116,22 +1162,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1730732450.2455845</t>
+          <t>1731621117.7840002</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1730732451.3580544</t>
+          <t>1731621118.9624894</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732450.2455845.png</t>
+          <t>./test_images/MOEX1731621117.7840002.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732451.3580544.png</t>
+          <t>./test_images/MOEX1731621118.9624894.png</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1152,6 +1198,9 @@
       </c>
       <c r="K15" t="n">
         <v>1.330000000000013</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="16">
@@ -1165,22 +1214,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1730732451.9702027</t>
+          <t>1731621119.6843157</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1730732454.6878395</t>
+          <t>1731621122.701628</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732451.9702027.png</t>
+          <t>./test_images/MOEX1731621119.6843157.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732454.6878395.png</t>
+          <t>./test_images/MOEX1731621122.701628.png</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1201,6 +1250,9 @@
       </c>
       <c r="K16" t="n">
         <v>-1.920000000000016</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.86</v>
       </c>
     </row>
     <row r="17">
@@ -1214,22 +1266,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1730732454.7037907</t>
+          <t>1731621122.7176046</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1730732455.9212542</t>
+          <t>1731621123.793757</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732454.7037907.png</t>
+          <t>./test_images/MOEX1731621122.7176046.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732455.9212542.png</t>
+          <t>./test_images/MOEX1731621123.793757.png</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1250,6 +1302,9 @@
       </c>
       <c r="K17" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="18">
@@ -1263,22 +1318,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1730732455.937211</t>
+          <t>1731621123.8096864</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1730732456.7797394</t>
+          <t>1731621124.7117867</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732455.937211.png</t>
+          <t>./test_images/MOEX1731621123.8096864.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732456.7797394.png</t>
+          <t>./test_images/MOEX1731621124.7117867.png</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1299,6 +1354,9 @@
       </c>
       <c r="K18" t="n">
         <v>0.2000000000000171</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="19">
@@ -1312,13 +1370,13 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1730732456.795697</t>
+          <t>1731621124.727717</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732456.795697.png</t>
+          <t>./test_images/MOEX1731621124.727717.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1335,8 +1393,15 @@
       <c r="I19" t="n">
         <v>224.95</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>224.95</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1349,22 +1414,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1730732461.3430643</t>
+          <t>1731621129.4227428</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1730732462.8091214</t>
+          <t>1731621130.8977199</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732461.3430643.png</t>
+          <t>./test_images/NVTK1731621129.4227428.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732462.8091214.png</t>
+          <t>./test_images/NVTK1731621130.8977199.png</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1385,6 +1450,9 @@
       </c>
       <c r="K20" t="n">
         <v>-2.200000000000045</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="21">
@@ -1398,22 +1466,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1730732462.825052</t>
+          <t>1731621130.9136481</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1730732463.4076736</t>
+          <t>1731621131.50997</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732462.825052.png</t>
+          <t>./test_images/NVTK1731621130.9136481.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732463.4076736.png</t>
+          <t>./test_images/NVTK1731621131.50997.png</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1434,6 +1502,9 @@
       </c>
       <c r="K21" t="n">
         <v>3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="22">
@@ -1447,22 +1518,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1730732464.9036078</t>
+          <t>1731621132.973931</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1730732467.0552645</t>
+          <t>1731621135.0559192</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732464.9036078.png</t>
+          <t>./test_images/NVTK1731621132.973931.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732467.0552645.png</t>
+          <t>./test_images/NVTK1731621135.0559192.png</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1483,6 +1554,9 @@
       </c>
       <c r="K22" t="n">
         <v>-7.199999999999932</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.72</v>
       </c>
     </row>
     <row r="23">
@@ -1496,22 +1570,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1730732467.071757</t>
+          <t>1731621135.0719094</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1730732467.896902</t>
+          <t>1731621135.861983</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732467.071757.png</t>
+          <t>./test_images/NVTK1731621135.0719094.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732467.896902.png</t>
+          <t>./test_images/NVTK1731621135.861983.png</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1532,6 +1606,9 @@
       </c>
       <c r="K23" t="n">
         <v>-0.1999999999999318</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="24">
@@ -1545,22 +1622,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1730732467.9138575</t>
+          <t>1731621135.8789117</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1730732469.332813</t>
+          <t>1731621137.2420356</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732467.9138575.png</t>
+          <t>./test_images/NVTK1731621135.8789117.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732469.332813.png</t>
+          <t>./test_images/NVTK1731621137.2420356.png</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1581,6 +1658,9 @@
       </c>
       <c r="K24" t="n">
         <v>-0.3999999999999773</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="25">
@@ -1594,22 +1674,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1730732469.34974</t>
+          <t>1731621137.2579958</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1730732471.9726722</t>
+          <t>1731621139.6589248</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732469.34974.png</t>
+          <t>./test_images/NVTK1731621137.2579958.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732471.9726722.png</t>
+          <t>./test_images/NVTK1731621139.6589248.png</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1630,6 +1710,9 @@
       </c>
       <c r="K25" t="n">
         <v>-2.200000000000045</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="26">
@@ -1643,22 +1726,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1730732484.2724152</t>
+          <t>1731621152.625283</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1730732484.891617</t>
+          <t>1731621153.2696357</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730732484.2724152.png</t>
+          <t>./test_images/GMKN1731621152.625283.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730732484.891617.png</t>
+          <t>./test_images/GMKN1731621153.2696357.png</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1679,6 +1762,9 @@
       </c>
       <c r="K26" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="27">
@@ -1692,13 +1778,13 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1730732484.9085715</t>
+          <t>1731621153.2865908</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730732484.9085715.png</t>
+          <t>./test_images/GMKN1731621153.2865908.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1715,8 +1801,15 @@
       <c r="I27" t="n">
         <v>124.02</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>124.02</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1729,22 +1822,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1730732499.3998766</t>
+          <t>1731621168.6439626</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1730732499.9796278</t>
+          <t>1731621169.2338254</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732499.3998766.png</t>
+          <t>./test_images/NLMK1731621168.6439626.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732499.9796278.png</t>
+          <t>./test_images/NLMK1731621169.2338254.png</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1765,6 +1858,9 @@
       </c>
       <c r="K28" t="n">
         <v>0.1400000000000148</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="29">
@@ -1778,22 +1874,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1730732499.9965556</t>
+          <t>1731621169.2507803</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1730732501.7223473</t>
+          <t>1731621170.8742075</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732499.9965556.png</t>
+          <t>./test_images/NLMK1731621169.2507803.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732501.7223473.png</t>
+          <t>./test_images/NLMK1731621170.8742075.png</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1814,6 +1910,9 @@
       </c>
       <c r="K29" t="n">
         <v>-0.2199999999999989</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="30">
@@ -1827,22 +1926,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1730732502.283691</t>
+          <t>1731621171.41673</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1730732502.666278</t>
+          <t>1731621171.8121176</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732502.283691.png</t>
+          <t>./test_images/NLMK1731621171.41673.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732502.666278.png</t>
+          <t>./test_images/NLMK1731621171.8121176.png</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1863,6 +1962,9 @@
       </c>
       <c r="K30" t="n">
         <v>0.4799999999999898</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="31">
@@ -1876,13 +1978,13 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1730732503.6628385</t>
+          <t>1731621172.8154328</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732503.6628385.png</t>
+          <t>./test_images/NLMK1731621172.8154328.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -1899,8 +2001,15 @@
       <c r="I31" t="n">
         <v>160.8</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>160.8</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1913,22 +2022,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1730732505.3842292</t>
+          <t>1731621174.5155513</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1730732506.2066545</t>
+          <t>1731621175.3465168</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730732505.3842292.png</t>
+          <t>./test_images/MAGN1731621174.5155513.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730732506.2066545.png</t>
+          <t>./test_images/MAGN1731621175.3465168.png</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1949,6 +2058,9 @@
       </c>
       <c r="K32" t="n">
         <v>-0.03999999999999915</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="33">
@@ -1962,22 +2074,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1730732506.22361</t>
+          <t>1731621175.3624458</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1730732507.7925105</t>
+          <t>1731621176.9743936</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730732506.22361.png</t>
+          <t>./test_images/MAGN1731621175.3624458.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730732507.7925105.png</t>
+          <t>./test_images/MAGN1731621176.9743936.png</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1998,6 +2110,9 @@
       </c>
       <c r="K33" t="n">
         <v>0.1000000000000014</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="34">
@@ -2011,22 +2126,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1730732509.9448009</t>
+          <t>1731621179.3147798</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1730732514.975458</t>
+          <t>1731621184.584997</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730732509.9448009.png</t>
+          <t>./test_images/MAGN1731621179.3147798.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730732514.975458.png</t>
+          <t>./test_images/MAGN1731621184.584997.png</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2047,6 +2162,9 @@
       </c>
       <c r="K34" t="n">
         <v>-0.3700000000000045</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.76</v>
       </c>
     </row>
     <row r="35">
@@ -2060,22 +2178,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1730732519.9571388</t>
+          <t>1731621189.7896955</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1730732520.3474686</t>
+          <t>1731621190.202749</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730732519.9571388.png</t>
+          <t>./test_images/CHMF1731621189.7896955.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730732520.3474686.png</t>
+          <t>./test_images/CHMF1731621190.202749.png</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2096,6 +2214,9 @@
       </c>
       <c r="K35" t="n">
         <v>3.199999999999818</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="36">
@@ -2109,22 +2230,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1730732526.5334003</t>
+          <t>1731621196.5591047</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1730732527.6275558</t>
+          <t>1731621197.7069912</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730732526.5334003.png</t>
+          <t>./test_images/CHMF1731621196.5591047.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730732527.6275558.png</t>
+          <t>./test_images/CHMF1731621197.7069912.png</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2145,6 +2266,9 @@
       </c>
       <c r="K36" t="n">
         <v>-0.3999999999998636</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="37">
@@ -2158,22 +2282,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1730732527.6445105</t>
+          <t>1731621197.7229505</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1730732528.066403</t>
+          <t>1731621198.19404</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730732527.6445105.png</t>
+          <t>./test_images/CHMF1731621197.7229505.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730732528.066403.png</t>
+          <t>./test_images/CHMF1731621198.19404.png</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2194,6 +2318,9 @@
       </c>
       <c r="K37" t="n">
         <v>2.800000000000182</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="38">
@@ -2207,13 +2334,13 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1730732528.8702</t>
+          <t>1731621199.0605211</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730732528.8702.png</t>
+          <t>./test_images/CHMF1731621199.0605211.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2230,8 +2357,15 @@
       <c r="I38" t="n">
         <v>1378.2</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1378.2</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2244,22 +2378,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1730732535.26584</t>
+          <t>1731621205.914655</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1730732536.5393178</t>
+          <t>1731621207.2334685</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730732535.26584.png</t>
+          <t>./test_images/ALRS1731621205.914655.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730732536.5393178.png</t>
+          <t>./test_images/ALRS1731621207.2334685.png</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2280,6 +2414,9 @@
       </c>
       <c r="K39" t="n">
         <v>-0.1699999999999946</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="40">
@@ -2293,22 +2430,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1730732536.5562742</t>
+          <t>1731621207.2504292</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1730732537.905514</t>
+          <t>1731621208.7114947</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730732536.5562742.png</t>
+          <t>./test_images/ALRS1731621207.2504292.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730732537.905514.png</t>
+          <t>./test_images/ALRS1731621208.7114947.png</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2329,6 +2466,9 @@
       </c>
       <c r="K40" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="41">
@@ -2342,22 +2482,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1730732537.9224873</t>
+          <t>1731621208.7284493</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1730732538.8675542</t>
+          <t>1731621209.7011003</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730732537.9224873.png</t>
+          <t>./test_images/ALRS1731621208.7284493.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730732538.8675542.png</t>
+          <t>./test_images/ALRS1731621209.7011003.png</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2378,6 +2518,9 @@
       </c>
       <c r="K41" t="n">
         <v>-0.02000000000000313</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="42">
@@ -2391,13 +2534,13 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1730732538.8845077</t>
+          <t>1731621209.7180524</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730732538.8845077.png</t>
+          <t>./test_images/ALRS1731621209.7180524.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2414,8 +2557,15 @@
       <c r="I42" t="n">
         <v>59.64</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>59.64</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2428,22 +2578,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1730732544.4841309</t>
+          <t>1731621215.8306057</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1730732544.6678624</t>
+          <t>1731621216.0211525</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730732544.4841309.png</t>
+          <t>./test_images/VTBR1731621215.8306057.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730732544.6678624.png</t>
+          <t>./test_images/VTBR1731621216.0211525.png</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2464,6 +2614,9 @@
       </c>
       <c r="K43" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="44">
@@ -2477,22 +2630,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1730732547.652357</t>
+          <t>1731621219.2465782</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1730732548.197383</t>
+          <t>1731621219.8027678</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730732547.652357.png</t>
+          <t>./test_images/VTBR1731621219.2465782.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730732548.197383.png</t>
+          <t>./test_images/VTBR1731621219.8027678.png</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2513,6 +2666,9 @@
       </c>
       <c r="K44" t="n">
         <v>0.3500000000000085</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="45">
@@ -2526,22 +2682,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1730732553.5758605</t>
+          <t>1731621225.4174273</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1730732555.6506915</t>
+          <t>1731621227.8159273</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730732553.5758605.png</t>
+          <t>./test_images/SELG1731621225.4174273.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730732555.6506915.png</t>
+          <t>./test_images/SELG1731621227.8159273.png</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2562,6 +2718,9 @@
       </c>
       <c r="K45" t="n">
         <v>0.3800000000000026</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="46">
@@ -2575,22 +2734,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1730732555.6676478</t>
+          <t>1731621227.8328536</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1730732556.8578918</t>
+          <t>1731621229.0686433</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730732555.6676478.png</t>
+          <t>./test_images/SELG1731621227.8328536.png</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730732556.8578918.png</t>
+          <t>./test_images/SELG1731621229.0686433.png</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2611,6 +2770,9 @@
       </c>
       <c r="K46" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="47">
@@ -2624,22 +2786,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1730732556.8738189</t>
+          <t>1731621229.0855982</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1730732557.7139647</t>
+          <t>1731621229.9478111</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730732556.8738189.png</t>
+          <t>./test_images/SELG1731621229.0855982.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730732557.7139647.png</t>
+          <t>./test_images/SELG1731621229.9478111.png</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2660,6 +2822,9 @@
       </c>
       <c r="K47" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="48">
@@ -2673,13 +2838,13 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1730732557.7308915</t>
+          <t>1731621229.963773</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730732557.7308915.png</t>
+          <t>./test_images/SELG1731621229.963773.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -2696,8 +2861,15 @@
       <c r="I48" t="n">
         <v>56.19</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>56.19</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2710,22 +2882,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1730732565.1102195</t>
+          <t>1731621237.8247738</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1730732566.6904101</t>
+          <t>1731621239.4657013</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730732565.1102195.png</t>
+          <t>./test_images/SOFL1731621237.8247738.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730732566.6904101.png</t>
+          <t>./test_images/SOFL1731621239.4657013.png</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2746,6 +2918,9 @@
       </c>
       <c r="K49" t="n">
         <v>-0.7999999999999829</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="50">
@@ -2759,22 +2934,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1730732566.707365</t>
+          <t>1731621239.482628</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1730732571.7333264</t>
+          <t>1731621244.7386732</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730732566.707365.png</t>
+          <t>./test_images/SOFL1731621239.482628.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730732571.7333264.png</t>
+          <t>./test_images/SOFL1731621244.7386732.png</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2795,6 +2970,9 @@
       </c>
       <c r="K50" t="n">
         <v>-3.019999999999982</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-2.17</v>
       </c>
     </row>
     <row r="51">
@@ -2808,13 +2986,13 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1730732571.7502801</t>
+          <t>1731621244.7546005</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730732571.7502801.png</t>
+          <t>./test_images/SOFL1731621244.7546005.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -2831,8 +3009,15 @@
       <c r="I51" t="n">
         <v>142.2</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2845,22 +3030,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1730732574.2669373</t>
+          <t>1731621247.5955484</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1730732576.9403872</t>
+          <t>1731621250.2994845</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730732574.2669373.png</t>
+          <t>./test_images/AFKS1731621247.5955484.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730732576.9403872.png</t>
+          <t>./test_images/AFKS1731621250.2994845.png</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2881,6 +3066,9 @@
       </c>
       <c r="K52" t="n">
         <v>-0.1609999999999978</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.8</v>
       </c>
     </row>
     <row r="53">
@@ -2894,22 +3082,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1730732576.95834</t>
+          <t>1731621250.3164382</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1730732577.9826338</t>
+          <t>1731621251.358357</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730732576.95834.png</t>
+          <t>./test_images/AFKS1731621250.3164382.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730732577.9826338.png</t>
+          <t>./test_images/AFKS1731621251.358357.png</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2930,6 +3118,9 @@
       </c>
       <c r="K53" t="n">
         <v>0.1230000000000011</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="54">
@@ -2943,22 +3134,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1730732578.9483025</t>
+          <t>1731621252.2894368</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1730732580.906414</t>
+          <t>1731621254.3717527</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730732578.9483025.png</t>
+          <t>./test_images/AFKS1731621252.2894368.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730732580.906414.png</t>
+          <t>./test_images/AFKS1731621254.3717527.png</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2979,6 +3170,9 @@
       </c>
       <c r="K54" t="n">
         <v>-0.06099999999999994</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="55">
@@ -2992,22 +3186,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1730732580.9243362</t>
+          <t>1731621254.389705</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1730732582.4890707</t>
+          <t>1731621256.2193675</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730732580.9243362.png</t>
+          <t>./test_images/AFKS1731621254.389705.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730732582.4890707.png</t>
+          <t>./test_images/AFKS1731621256.2193675.png</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3028,6 +3222,9 @@
       </c>
       <c r="K55" t="n">
         <v>0.03800000000000026</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="56">
@@ -3041,22 +3238,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1730732583.3854454</t>
+          <t>1731621257.128013</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1730732585.0746558</t>
+          <t>1731621258.853585</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730732583.3854454.png</t>
+          <t>./test_images/AFKS1731621257.128013.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730732585.0746558.png</t>
+          <t>./test_images/AFKS1731621258.853585.png</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3077,6 +3274,9 @@
       </c>
       <c r="K56" t="n">
         <v>-0.04599999999999937</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="57">
@@ -3090,13 +3290,13 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1730732585.091611</t>
+          <t>1731621258.8705404</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730732585.091611.png</t>
+          <t>./test_images/AFKS1731621258.8705404.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3113,8 +3313,15 @@
       <c r="I57" t="n">
         <v>19.898</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>19.898</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3127,22 +3334,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1730732586.9912796</t>
+          <t>1731621260.746853</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1730732591.5092814</t>
+          <t>1731621265.454251</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730732586.9912796.png</t>
+          <t>./test_images/SIBN1731621260.746853.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730732591.5092814.png</t>
+          <t>./test_images/SIBN1731621265.454251.png</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3163,6 +3370,9 @@
       </c>
       <c r="K58" t="n">
         <v>6.149999999999977</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.9400000000000001</v>
       </c>
     </row>
     <row r="59">
@@ -3176,22 +3386,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1730732591.5262358</t>
+          <t>1731621265.47018</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1730732593.8108988</t>
+          <t>1731621267.8822706</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730732591.5262358.png</t>
+          <t>./test_images/SIBN1731621265.47018.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730732593.8108988.png</t>
+          <t>./test_images/SIBN1731621267.8822706.png</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3212,6 +3422,9 @@
       </c>
       <c r="K59" t="n">
         <v>-4.450000000000045</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.6799999999999999</v>
       </c>
     </row>
     <row r="60">
@@ -3225,22 +3438,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1730732593.8288507</t>
+          <t>1731621267.8992248</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1730732595.1223114</t>
+          <t>1731621269.244538</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730732593.8288507.png</t>
+          <t>./test_images/SIBN1731621267.8992248.png</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730732595.1223114.png</t>
+          <t>./test_images/SIBN1731621269.244538.png</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3261,6 +3474,9 @@
       </c>
       <c r="K60" t="n">
         <v>-1.299999999999955</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="61">
@@ -3274,22 +3490,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1730732595.1392663</t>
+          <t>1731621269.2614648</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1730732595.9415483</t>
+          <t>1731621270.0818508</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730732595.1392663.png</t>
+          <t>./test_images/SIBN1731621269.2614648.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730732595.9415483.png</t>
+          <t>./test_images/SIBN1731621270.0818508.png</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3310,6 +3526,9 @@
       </c>
       <c r="K61" t="n">
         <v>-0.2999999999999545</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="62">
@@ -3323,13 +3542,13 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1730732595.958503</t>
+          <t>1731621270.098802</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730732595.958503.png</t>
+          <t>./test_images/SIBN1731621270.098802.png</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3346,8 +3565,15 @@
       <c r="I62" t="n">
         <v>660.5</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>660.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3360,22 +3586,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1730732606.8577144</t>
+          <t>1731621281.6238408</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1730732609.342238</t>
+          <t>1731621284.241103</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730732606.8577144.png</t>
+          <t>./test_images/FEES1731621281.6238408.png</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730732609.342238.png</t>
+          <t>./test_images/FEES1731621284.241103.png</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3396,6 +3622,9 @@
       </c>
       <c r="K63" t="n">
         <v>-0.000340000000000007</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="64">
@@ -3409,22 +3638,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1730732609.3601627</t>
+          <t>1731621284.2580578</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1730732609.418603</t>
+          <t>1731621284.329026</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730732609.3601627.png</t>
+          <t>./test_images/FEES1731621284.2580578.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730732609.418603.png</t>
+          <t>./test_images/FEES1731621284.329026.png</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3445,6 +3674,9 @@
       </c>
       <c r="K64" t="n">
         <v>0.0003399999999999931</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="65">
@@ -3458,22 +3690,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1730732611.481564</t>
+          <t>1731621286.5263085</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1730732614.1980772</t>
+          <t>1731621289.2431102</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730732611.481564.png</t>
+          <t>./test_images/FEES1731621286.5263085.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730732614.1980772.png</t>
+          <t>./test_images/FEES1731621289.2431102.png</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3494,6 +3726,9 @@
       </c>
       <c r="K65" t="n">
         <v>-0.0004600000000000021</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.48</v>
       </c>
     </row>
     <row r="66">
@@ -3507,22 +3742,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1730732614.2160304</t>
+          <t>1731621289.2610621</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1730732617.8335533</t>
+          <t>1731621293.30342</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730732614.2160304.png</t>
+          <t>./test_images/FEES1731621289.2610621.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730732617.8335533.png</t>
+          <t>./test_images/FEES1731621293.30342.png</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3543,6 +3778,9 @@
       </c>
       <c r="K66" t="n">
         <v>-0.0005200000000000066</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="67">
@@ -3556,13 +3794,13 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1730732617.8515065</t>
+          <t>1731621293.3204033</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730732617.8515065.png</t>
+          <t>./test_images/FEES1731621293.3204033.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -3579,8 +3817,15 @@
       <c r="I67" t="n">
         <v>0.095</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3593,22 +3838,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1730732620.9169862</t>
+          <t>1731621296.6202617</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1730732621.8518808</t>
+          <t>1731621297.72121</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>./test_images/HYDR1730732620.9169862.png</t>
+          <t>./test_images/HYDR1731621296.6202617.png</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>./test_images/HYDR1730732621.8518808.png</t>
+          <t>./test_images/HYDR1731621297.72121.png</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3629,6 +3874,9 @@
       </c>
       <c r="K68" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="69">
@@ -3642,13 +3890,13 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1730732622.8103468</t>
+          <t>1731621298.7091765</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>./test_images/HYDR1730732622.8103468.png</t>
+          <t>./test_images/HYDR1731621298.7091765.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -3665,8 +3913,15 @@
       <c r="I69" t="n">
         <v>94.83</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>94.83</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3679,22 +3934,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1730732624.010843</t>
+          <t>1731621299.7495728</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1730732629.308577</t>
+          <t>1731621305.2620847</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732624.010843.png</t>
+          <t>./test_images/MXI1731621299.7495728.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732629.308577.png</t>
+          <t>./test_images/MXI1731621305.2620847.png</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3715,6 +3970,9 @@
       </c>
       <c r="K70" t="n">
         <v>-2.25</v>
+      </c>
+      <c r="L70" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="71">
@@ -3728,13 +3986,13 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1730732630.298597</t>
+          <t>1731621306.2731152</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730732630.298597.png</t>
+          <t>./test_images/MXI1731621306.2731152.png</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -3751,8 +4009,15 @@
       <c r="I71" t="n">
         <v>2902.55</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>2902.55</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3765,22 +4030,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1730732637.911997</t>
+          <t>1731621314.5500822</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1730732638.5943954</t>
+          <t>1731621315.282452</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730732637.911997.png</t>
+          <t>./test_images/RUAL1731621314.5500822.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730732638.5943954.png</t>
+          <t>./test_images/RUAL1731621315.282452.png</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3801,6 +4066,9 @@
       </c>
       <c r="K72" t="n">
         <v>0.01399999999999935</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="73">
@@ -3814,22 +4082,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1730732639.447131</t>
+          <t>1731621316.295746</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1730732640.262371</t>
+          <t>1731621317.175731</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730732639.447131.png</t>
+          <t>./test_images/RUAL1731621316.295746.png</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730732640.262371.png</t>
+          <t>./test_images/RUAL1731621317.175731.png</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3850,6 +4118,9 @@
       </c>
       <c r="K73" t="n">
         <v>0.03600000000000136</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -3863,7 +4134,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3887,57 +4158,108 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1399999999999579</v>
+        <v>0.4699999999999989</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06714285714285698</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4699999999999989</v>
+        <v>-0.1069999999999958</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
+      <c r="D3" t="n">
+        <v>-0.01783333333333263</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-9.199999999999932</v>
+        <v>0.1399999999999579</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.02333333333332632</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1069999999999958</v>
+        <v>-9.199999999999932</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1.533333333333322</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="6">
@@ -3950,7 +4272,16 @@
         <v>-0.0009800000000000225</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.0001960000000000045</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="7">
@@ -3963,7 +4294,16 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02000000000000455</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01000000000000011</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3976,177 +4316,303 @@
         <v>5.600000000000136</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.400000000000034</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.3100000000000023</v>
+        <v>-0.1199999999999974</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.02999999999999936</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1199999999999974</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1000000000000014</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4000000000000057</v>
+        <v>0.4200000000000017</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1050000000000004</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7499999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4200000000000017</v>
+        <v>-3.819999999999965</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
+      <c r="D12" t="n">
+        <v>-1.273333333333322</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-2.74</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.91</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5400000000000063</v>
+        <v>-0.3100000000000023</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.1033333333333341</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.819999999999965</v>
+        <v>0.05000000000000071</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.02500000000000036</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05000000000000071</v>
+        <v>0.5400000000000063</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.2700000000000031</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4300000000000068</v>
+        <v>-2.25</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-1.125</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.25</v>
+        <v>10.5</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>HYDR</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.3500000000000227</v>
+        <v>0.5</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.5</v>
+        <v>0.1200000000000045</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>HYDR</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5</v>
+        <v>0.4300000000000068</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>0.4300000000000068</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1200000000000045</v>
+        <v>-0.3500000000000227</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>-0.3500000000000227</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4160,6 +4626,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/ST1/ST1_05.08.24_output.xlsx
+++ b/docs/ST1/ST1_05.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731621066.5850756</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731621067.0728755</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731621066.5850756.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731621067.0728755.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>277.61</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>277.18</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.4300000000000068</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731621076.2180307</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731621078.6171799</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731621076.2180307.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731621078.6171799.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>128.66</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>128.07</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.5900000000000034</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.46</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731621078.6331377</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731621079.968818</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731621078.6331377.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731621079.968818.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>128.07</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>127.51</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.5599999999999881</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731621081.2019885</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731621083.2627766</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731621081.2019885.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731621083.2627766.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>127.94</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>128.08</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.1400000000000148</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731621083.2797315</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731621086.731532</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731621083.2797315.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731621086.731532.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>128.08</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>128.06</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.02000000000001023</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731621086.7484868</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731621087.1390898</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731621086.7484868.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731621087.1390898.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>128.06</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>127.89</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.1700000000000017</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731621089.0268002</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731621089.4792087</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731621089.0268002.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731621089.4792087.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>127.64</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>127.48</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731621092.884838</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731621095.0564294</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731621092.884838.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731621095.0564294.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6416.5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6427</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>10.5</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -955,95 +1019,107 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731621098.773075</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731621098.773075.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731621098.773075.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6443</v>
       </c>
-      <c r="J11" t="n">
-        <v>6443</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>6394.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-48.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731621103.2959483</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731621107.6287677</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731621103.2959483.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731621107.6287677.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>497.25</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>496.9</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.3500000000000227</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731621115.5336978</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731621116.3255854</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731621115.5336978.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731621116.3255854.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>224.29</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>224.41</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731621116.3415427</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731621117.3790658</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731621116.3415427.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731621117.3790658.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>224.41</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>223.8</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.6099999999999852</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731621117.7840002</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731621118.9624894</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731621117.7840002.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731621118.9624894.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>224</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>222.67</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>1.330000000000013</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731621119.6843157</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731621122.701628</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731621119.6843157.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731621122.701628.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>223.1</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>225.02</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-1.920000000000016</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.86</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731621122.7176046</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731621123.793757</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731621122.7176046.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731621123.793757.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>225.02</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>225.15</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.1299999999999955</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731621123.8096864</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731621124.7117867</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731621123.8096864.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731621124.7117867.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>225.15</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>224.95</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.2000000000000171</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1363,95 +1475,107 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731621124.727717</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731621124.727717.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731621124.727717.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>224.95</v>
       </c>
-      <c r="J19" t="n">
-        <v>224.95</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>223.39</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-1.560000000000002</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731621129.4227428</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731621130.8977199</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731621129.4227428.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731621130.8977199.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1008</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>1005.8</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-2.200000000000045</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -1459,51 +1583,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731621130.9136481</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731621131.50997</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731621130.9136481.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731621131.50997.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>1005.8</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>1002.8</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>3</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1511,51 +1641,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731621132.973931</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731621135.0559192</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731621132.973931.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731621135.0559192.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1001.6</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1008.8</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-7.199999999999932</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.72</v>
       </c>
     </row>
@@ -1563,51 +1699,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731621135.0719094</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731621135.861983</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731621135.0719094.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731621135.861983.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1008.8</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1008.6</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.1999999999999318</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1615,51 +1757,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731621135.8789117</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731621137.2420356</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731621135.8789117.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731621137.2420356.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1008.6</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1009</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.3999999999999773</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1667,51 +1815,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731621137.2579958</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731621139.6589248</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731621137.2579958.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731621139.6589248.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1009</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1006.8</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-2.200000000000045</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -1719,51 +1873,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731621152.625283</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731621153.2696357</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731621152.625283.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731621153.2696357.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>124.14</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>124.02</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1771,95 +1931,107 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731621153.2865908</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731621153.2865908.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731621153.2865908.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>124.02</v>
       </c>
-      <c r="J27" t="n">
-        <v>124.02</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>124.14</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.1200000000000045</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731621168.6439626</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731621169.2338254</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731621168.6439626.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731621169.2338254.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>160.7</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>160.84</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.1400000000000148</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1867,51 +2039,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731621169.2507803</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731621170.8742075</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731621169.2507803.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731621170.8742075.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>160.84</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>161.06</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.2199999999999989</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -1919,51 +2097,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731621171.41673</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731621171.8121176</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731621171.41673.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731621171.8121176.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>161.1</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>160.62</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.4799999999999898</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1971,95 +2155,107 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731621172.8154328</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731621172.8154328.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731621172.8154328.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>160.8</v>
       </c>
-      <c r="J31" t="n">
-        <v>160.8</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>160.56</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.2400000000000091</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731621174.5155513</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731621175.3465168</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731621174.5155513.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731621175.3465168.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>49.13</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>49.09</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.03999999999999915</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -2067,51 +2263,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731621175.3624458</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731621176.9743936</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731621175.3624458.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731621176.9743936.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>49.09</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>48.99</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -2119,51 +2321,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731621179.3147798</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731621184.584997</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731621179.3147798.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731621184.584997.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>48.73</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>49.1</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.3700000000000045</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.76</v>
       </c>
     </row>
@@ -2171,51 +2379,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731621189.7896955</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731621190.202749</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731621189.7896955.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731621190.202749.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1382.6</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1379.4</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>3.199999999999818</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -2223,51 +2437,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731621196.5591047</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731621197.7069912</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731621196.5591047.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731621197.7069912.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1379.8</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1379.4</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.3999999999998636</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2275,51 +2495,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731621197.7229505</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731621198.19404</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731621197.7229505.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731621198.19404.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1379.4</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1376.6</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>2.800000000000182</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -2327,95 +2553,107 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731621199.0605211</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731621199.0605211.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731621199.0605211.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1378.2</v>
       </c>
-      <c r="J38" t="n">
-        <v>1378.2</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1375.4</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2.799999999999955</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731621205.914655</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731621207.2334685</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731621205.914655.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731621207.2334685.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>59.38</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>59.55</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.1699999999999946</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -2423,51 +2661,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731621207.2504292</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731621208.7114947</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731621207.2504292.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731621208.7114947.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>59.55</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>59.62</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.07000000000000028</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2475,51 +2719,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731621208.7284493</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731621209.7011003</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731621208.7284493.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731621209.7011003.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>59.62</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>59.64</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.02000000000000313</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2527,95 +2777,107 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731621209.7180524</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731621209.7180524.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731621209.7180524.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>59.64</v>
       </c>
-      <c r="J42" t="n">
-        <v>59.64</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>59.38</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.259999999999998</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731621215.8306057</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731621216.0211525</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731621215.8306057.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731621216.0211525.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>96.02</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -2623,51 +2885,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731621219.2465782</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731621219.8027678</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731621219.2465782.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731621219.8027678.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>96.12</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>95.77</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.3500000000000085</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -2675,51 +2943,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731621225.4174273</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731621227.8159273</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/SELG1731621225.4174273.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/SELG1731621227.8159273.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>55.83</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>56.21</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.3800000000000026</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.6799999999999999</v>
       </c>
     </row>
@@ -2727,51 +3001,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731621227.8328536</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731621229.0686433</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/SELG1731621227.8328536.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/SELG1731621229.0686433.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>56.21</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>56.18</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2779,51 +3059,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731621229.0855982</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731621229.9478111</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/SELG1731621229.0855982.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/SELG1731621229.9478111.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>56.18</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>56.19</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.00999999999999801</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2831,95 +3117,107 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731621229.963773</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731621229.963773.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731621229.963773.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>56.19</v>
       </c>
-      <c r="J48" t="n">
-        <v>56.19</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>55.96</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.2299999999999969</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731621237.8247738</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731621239.4657013</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731621237.8247738.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731621239.4657013.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>139.98</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>139.18</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.7999999999999829</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -2927,51 +3225,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731621239.482628</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731621244.7386732</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731621239.482628.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731621244.7386732.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>139.18</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>142.2</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-3.019999999999982</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>-2.17</v>
       </c>
     </row>
@@ -2979,95 +3283,107 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731621244.7546005</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731621244.7546005.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731621244.7546005.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>142.2</v>
       </c>
-      <c r="J51" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>141.34</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.8599999999999852</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731621247.5955484</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731621250.2994845</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731621247.5955484.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731621250.2994845.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>20.11</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>19.949</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.1609999999999978</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.8</v>
       </c>
     </row>
@@ -3075,51 +3391,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731621250.3164382</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731621251.358357</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731621250.3164382.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731621251.358357.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>19.949</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>19.826</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.1230000000000011</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -3127,51 +3449,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731621252.2894368</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731621254.3717527</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731621252.2894368.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731621254.3717527.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>19.858</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>19.919</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.06099999999999994</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -3179,51 +3507,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731621254.389705</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731621256.2193675</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731621254.389705.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731621256.2193675.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>19.919</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>19.957</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.03800000000000026</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -3231,51 +3565,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731621257.128013</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731621258.853585</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731621257.128013.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731621258.853585.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>19.944</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>19.898</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.04599999999999937</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -3283,95 +3623,107 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731621258.8705404</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731621258.8705404.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731621258.8705404.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>19.898</v>
       </c>
-      <c r="J57" t="n">
-        <v>19.898</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>19.761</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.1370000000000005</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731621260.746853</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731621265.454251</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731621260.746853.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731621265.454251.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>650.9</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>657.05</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>6.149999999999977</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.9400000000000001</v>
       </c>
     </row>
@@ -3379,51 +3731,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731621265.47018</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731621267.8822706</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731621265.47018.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731621267.8822706.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>657.05</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>661.5</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-4.450000000000045</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.6799999999999999</v>
       </c>
     </row>
@@ -3431,51 +3789,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731621267.8992248</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731621269.244538</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731621267.8992248.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731621269.244538.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>661.5</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>660.2</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-1.299999999999955</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -3483,51 +3847,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731621269.2614648</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731621270.0818508</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731621269.2614648.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731621270.0818508.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>660.2</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>660.5</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.2999999999999545</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -3535,95 +3905,107 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731621270.098802</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731621270.098802.png</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731621270.098802.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>660.5</v>
       </c>
-      <c r="J62" t="n">
-        <v>660.5</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>657</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731621281.6238408</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731621284.241103</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/FEES1731621281.6238408.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/FEES1731621284.241103.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>0.09574000000000001</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>0.0954</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.000340000000000007</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -3631,51 +4013,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731621284.2580578</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731621284.329026</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/FEES1731621284.2580578.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/FEES1731621284.329026.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>0.0954</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>0.09506000000000001</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.0003399999999999931</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -3683,51 +4071,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731621286.5263085</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731621289.2431102</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/FEES1731621286.5263085.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/FEES1731621289.2431102.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>0.09506000000000001</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>0.09552000000000001</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.0004600000000000021</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>-0.48</v>
       </c>
     </row>
@@ -3735,51 +4129,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731621289.2610621</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731621293.30342</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/FEES1731621289.2610621.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/FEES1731621293.30342.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>0.09552000000000001</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>0.095</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.0005200000000000066</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-0.54</v>
       </c>
     </row>
@@ -3787,95 +4187,107 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731621293.3204033</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731621293.3204033.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731621293.3204033.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>0.095</v>
       </c>
-      <c r="J67" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>0.09504</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-3.999999999999837e-05</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731621296.6202617</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731621297.72121</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731621296.6202617.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731621297.72121.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>95.44</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>94.94</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.5</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -3883,95 +4295,107 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731621298.7091765</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1731621298.7091765.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>./test_images/HYDR1731621298.7091765.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>94.83</v>
       </c>
-      <c r="J69" t="n">
-        <v>94.83</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>94.73</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731621299.7495728</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731621305.2620847</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MXI1731621299.7495728.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MXI1731621305.2620847.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>2902.9</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>2900.65</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-2.25</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -3979,95 +4403,107 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731621306.2731152</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731621306.2731152.png</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731621306.2731152.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>2902.55</v>
       </c>
-      <c r="J71" t="n">
-        <v>2902.55</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>2888</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-14.55000000000018</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731621314.5500822</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731621315.282452</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731621314.5500822.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731621315.282452.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>11.894</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>11.908</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.01399999999999935</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -4075,51 +4511,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731621316.295746</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731621317.175731</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731621316.295746.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731621317.175731.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>11.905</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>11.941</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.03600000000000136</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4181,19 +4623,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4699999999999989</v>
+        <v>-1.090000000000003</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06714285714285698</v>
+        <v>-0.1557142857142862</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2</v>
+        <v>-0.4899999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -4203,19 +4645,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1069999999999958</v>
+        <v>0.03000000000000469</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01783333333333263</v>
+        <v>0.005000000000000782</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.53</v>
+        <v>0.1599999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.09</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -4269,19 +4711,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0009800000000000225</v>
+        <v>-0.001020000000000021</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0001960000000000045</v>
+        <v>-0.0002040000000000042</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.02</v>
+        <v>-1.06</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="7">
@@ -4291,19 +4733,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1000000000000227</v>
+        <v>-3.399999999999977</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02000000000000455</v>
+        <v>-0.6799999999999955</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01000000000000011</v>
+        <v>-0.5199999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="8">
@@ -4313,19 +4755,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.600000000000136</v>
+        <v>8.400000000000091</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>1.400000000000034</v>
+        <v>2.100000000000023</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9">
@@ -4335,19 +4777,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1199999999999974</v>
+        <v>-0.3799999999999955</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.02999999999999936</v>
+        <v>-0.09499999999999886</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.2</v>
+        <v>-0.64</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.05</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="10">
@@ -4357,19 +4799,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4000000000000057</v>
+        <v>0.6400000000000148</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1000000000000014</v>
+        <v>0.1600000000000037</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11">
@@ -4379,19 +4821,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4200000000000017</v>
+        <v>0.6499999999999986</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1050000000000004</v>
+        <v>0.1624999999999996</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7499999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="F11" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="12">
@@ -4401,19 +4843,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.819999999999965</v>
+        <v>-4.67999999999995</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.273333333333322</v>
+        <v>-1.559999999999983</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.74</v>
+        <v>-3.34</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.91</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="13">
@@ -4489,19 +4931,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.25</v>
+        <v>-16.80000000000018</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.125</v>
+        <v>-8.400000000000091</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.08</v>
+        <v>-0.58</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.04</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="17">
@@ -4511,19 +4953,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10.5</v>
+        <v>-38</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>5.25</v>
+        <v>-19</v>
       </c>
       <c r="E17" t="n">
-        <v>0.16</v>
+        <v>-0.59</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="18">
@@ -4533,19 +4975,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5</v>
+        <v>0.5999999999999943</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25</v>
+        <v>0.2999999999999972</v>
       </c>
       <c r="E18" t="n">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="F18" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="19">
@@ -4555,19 +4997,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1200000000000045</v>
+        <v>0.2400000000000091</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06000000000000227</v>
+        <v>0.1200000000000045</v>
       </c>
       <c r="E19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F19" t="n">
         <v>0.1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.05</v>
       </c>
     </row>
     <row r="20">
